--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22976146030151</v>
+        <v>1.296436</v>
       </c>
       <c r="H2">
-        <v>1.22976146030151</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I2">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J2">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N2">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q2">
-        <v>14.52632712235563</v>
+        <v>18.95231612524267</v>
       </c>
       <c r="R2">
-        <v>14.52632712235563</v>
+        <v>170.570845127184</v>
       </c>
       <c r="S2">
-        <v>0.04529700955245283</v>
+        <v>0.05178337284738344</v>
       </c>
       <c r="T2">
-        <v>0.04529700955245283</v>
+        <v>0.05178337284738344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22976146030151</v>
+        <v>1.296436</v>
       </c>
       <c r="H3">
-        <v>1.22976146030151</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I3">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J3">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q3">
-        <v>32.89481758372791</v>
+        <v>35.11289172168401</v>
       </c>
       <c r="R3">
-        <v>32.89481758372791</v>
+        <v>316.0160254951561</v>
       </c>
       <c r="S3">
-        <v>0.1025749216416303</v>
+        <v>0.09593887901394875</v>
       </c>
       <c r="T3">
-        <v>0.1025749216416303</v>
+        <v>0.09593887901394875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22976146030151</v>
+        <v>1.296436</v>
       </c>
       <c r="H4">
-        <v>1.22976146030151</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I4">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J4">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.0229714342534</v>
+        <v>13.19647366666667</v>
       </c>
       <c r="N4">
-        <v>11.0229714342534</v>
+        <v>39.589421</v>
       </c>
       <c r="O4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="P4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="Q4">
-        <v>13.55562544784929</v>
+        <v>17.10838353451867</v>
       </c>
       <c r="R4">
-        <v>13.55562544784929</v>
+        <v>153.975451810668</v>
       </c>
       <c r="S4">
-        <v>0.04227009967686377</v>
+        <v>0.04674519977028255</v>
       </c>
       <c r="T4">
-        <v>0.04227009967686377</v>
+        <v>0.04674519977028255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.77997283067663</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H5">
-        <v>1.77997283067663</v>
+        <v>5.511827</v>
       </c>
       <c r="I5">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J5">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N5">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O5">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P5">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q5">
-        <v>21.02559597287642</v>
+        <v>26.85873366975511</v>
       </c>
       <c r="R5">
-        <v>21.02559597287642</v>
+        <v>241.728603027796</v>
       </c>
       <c r="S5">
-        <v>0.06556348439680146</v>
+        <v>0.07338606060802458</v>
       </c>
       <c r="T5">
-        <v>0.06556348439680146</v>
+        <v>0.07338606060802458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.77997283067663</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H6">
-        <v>1.77997283067663</v>
+        <v>5.511827</v>
       </c>
       <c r="I6">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J6">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P6">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q6">
-        <v>47.61238944237524</v>
+        <v>49.76108465558767</v>
       </c>
       <c r="R6">
-        <v>47.61238944237524</v>
+        <v>447.8497619002891</v>
       </c>
       <c r="S6">
-        <v>0.148468283911029</v>
+        <v>0.1359621052636654</v>
       </c>
       <c r="T6">
-        <v>0.148468283911029</v>
+        <v>0.1359621052636654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.77997283067663</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H7">
-        <v>1.77997283067663</v>
+        <v>5.511827</v>
       </c>
       <c r="I7">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J7">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0229714342534</v>
+        <v>13.19647366666667</v>
       </c>
       <c r="N7">
-        <v>11.0229714342534</v>
+        <v>39.589421</v>
       </c>
       <c r="O7">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="P7">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="Q7">
-        <v>19.62058966629566</v>
+        <v>24.24555995357412</v>
       </c>
       <c r="R7">
-        <v>19.62058966629566</v>
+        <v>218.210039582167</v>
       </c>
       <c r="S7">
-        <v>0.06118229543180141</v>
+        <v>0.06624609164772684</v>
       </c>
       <c r="T7">
-        <v>0.06118229543180141</v>
+        <v>0.06624609164772682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.45785972108</v>
+        <v>3.532884666666666</v>
       </c>
       <c r="H8">
-        <v>3.45785972108</v>
+        <v>10.598654</v>
       </c>
       <c r="I8">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="J8">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N8">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O8">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P8">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q8">
-        <v>40.84532087979908</v>
+        <v>51.64647312839911</v>
       </c>
       <c r="R8">
-        <v>40.84532087979908</v>
+        <v>464.8182581555919</v>
       </c>
       <c r="S8">
-        <v>0.1273667372682181</v>
+        <v>0.1411135481588014</v>
       </c>
       <c r="T8">
-        <v>0.1273667372682181</v>
+        <v>0.1411135481588014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.45785972108</v>
+        <v>3.532884666666666</v>
       </c>
       <c r="H9">
-        <v>3.45785972108</v>
+        <v>10.598654</v>
       </c>
       <c r="I9">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="J9">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P9">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q9">
-        <v>92.49408802188273</v>
+        <v>95.68524536950866</v>
       </c>
       <c r="R9">
-        <v>92.49408802188273</v>
+        <v>861.167208325578</v>
       </c>
       <c r="S9">
-        <v>0.2884215365234885</v>
+        <v>0.2614405914411262</v>
       </c>
       <c r="T9">
-        <v>0.2884215365234885</v>
+        <v>0.2614405914411262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.45785972108</v>
+        <v>3.532884666666666</v>
       </c>
       <c r="H10">
-        <v>3.45785972108</v>
+        <v>10.598654</v>
       </c>
       <c r="I10">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="J10">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.0229714342534</v>
+        <v>13.19647366666667</v>
       </c>
       <c r="N10">
-        <v>11.0229714342534</v>
+        <v>39.589421</v>
       </c>
       <c r="O10">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="P10">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="Q10">
-        <v>38.11588892912027</v>
+        <v>46.62161947103711</v>
       </c>
       <c r="R10">
-        <v>38.11588892912027</v>
+        <v>419.594575239334</v>
       </c>
       <c r="S10">
-        <v>0.1188556315977147</v>
+        <v>0.1273841512490408</v>
       </c>
       <c r="T10">
-        <v>0.1188556315977147</v>
+        <v>0.1273841512490407</v>
       </c>
     </row>
   </sheetData>
